--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.079302</v>
+        <v>50.64491666666667</v>
       </c>
       <c r="H2">
-        <v>57.237906</v>
+        <v>151.93475</v>
       </c>
       <c r="I2">
-        <v>0.16487796290007</v>
+        <v>0.3402395000245828</v>
       </c>
       <c r="J2">
-        <v>0.16487796290007</v>
+        <v>0.3402395000245828</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N2">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q2">
-        <v>6.488768853922667</v>
+        <v>28.02110648119444</v>
       </c>
       <c r="R2">
-        <v>58.398919685304</v>
+        <v>252.18995833075</v>
       </c>
       <c r="S2">
-        <v>0.06301647257257169</v>
+        <v>0.1364409596166126</v>
       </c>
       <c r="T2">
-        <v>0.06301647257257169</v>
+        <v>0.1364409596166126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.079302</v>
+        <v>50.64491666666667</v>
       </c>
       <c r="H3">
-        <v>57.237906</v>
+        <v>151.93475</v>
       </c>
       <c r="I3">
-        <v>0.16487796290007</v>
+        <v>0.3402395000245828</v>
       </c>
       <c r="J3">
-        <v>0.16487796290007</v>
+        <v>0.3402395000245828</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N3">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q3">
-        <v>10.488617322876</v>
+        <v>41.85444471755556</v>
       </c>
       <c r="R3">
-        <v>94.397555905884</v>
+        <v>376.690002458</v>
       </c>
       <c r="S3">
-        <v>0.1018614903274983</v>
+        <v>0.2037985404079702</v>
       </c>
       <c r="T3">
-        <v>0.1018614903274983</v>
+        <v>0.2037985404079702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>241.259193</v>
       </c>
       <c r="I4">
-        <v>0.6949647017617103</v>
+        <v>0.5402707886290287</v>
       </c>
       <c r="J4">
-        <v>0.6949647017617104</v>
+        <v>0.5402707886290287</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N4">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q4">
-        <v>27.350321607868</v>
+        <v>44.495084479489</v>
       </c>
       <c r="R4">
-        <v>246.152894470812</v>
+        <v>400.455760315401</v>
       </c>
       <c r="S4">
-        <v>0.2656159943825562</v>
+        <v>0.2166563989426352</v>
       </c>
       <c r="T4">
-        <v>0.2656159943825562</v>
+        <v>0.2166563989426352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>241.259193</v>
       </c>
       <c r="I5">
-        <v>0.6949647017617103</v>
+        <v>0.5402707886290287</v>
       </c>
       <c r="J5">
-        <v>0.6949647017617104</v>
+        <v>0.5402707886290287</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N5">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q5">
-        <v>44.20978208047799</v>
+        <v>66.46122467717601</v>
       </c>
       <c r="R5">
-        <v>397.888038724302</v>
+        <v>598.1510220945839</v>
       </c>
       <c r="S5">
-        <v>0.4293487073791541</v>
+        <v>0.3236143896863935</v>
       </c>
       <c r="T5">
-        <v>0.4293487073791543</v>
+        <v>0.3236143896863935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.583637</v>
+        <v>17.514264</v>
       </c>
       <c r="H6">
-        <v>46.75091099999999</v>
+        <v>52.54279200000001</v>
       </c>
       <c r="I6">
-        <v>0.1346694089298527</v>
+        <v>0.1176632289846506</v>
       </c>
       <c r="J6">
-        <v>0.1346694089298527</v>
+        <v>0.1176632289846506</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N6">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q6">
-        <v>5.299911830969332</v>
+        <v>9.690391233416001</v>
       </c>
       <c r="R6">
-        <v>47.69920647872399</v>
+        <v>87.21352110074402</v>
       </c>
       <c r="S6">
-        <v>0.05147074214724486</v>
+        <v>0.04718465631737357</v>
       </c>
       <c r="T6">
-        <v>0.05147074214724486</v>
+        <v>0.04718465631737358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.583637</v>
+        <v>17.514264</v>
       </c>
       <c r="H7">
-        <v>46.75091099999999</v>
+        <v>52.54279200000001</v>
       </c>
       <c r="I7">
-        <v>0.1346694089298527</v>
+        <v>0.1176632289846506</v>
       </c>
       <c r="J7">
-        <v>0.1346694089298527</v>
+        <v>0.1176632289846506</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N7">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q7">
-        <v>8.566917437105998</v>
+        <v>14.474301521344</v>
       </c>
       <c r="R7">
-        <v>77.102256933954</v>
+        <v>130.268713692096</v>
       </c>
       <c r="S7">
-        <v>0.08319866678260786</v>
+        <v>0.07047857266727706</v>
       </c>
       <c r="T7">
-        <v>0.08319866678260786</v>
+        <v>0.07047857266727706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6350503333333334</v>
+        <v>0.2718733333333334</v>
       </c>
       <c r="H8">
-        <v>1.905151</v>
+        <v>0.81562</v>
       </c>
       <c r="I8">
-        <v>0.005487926408367055</v>
+        <v>0.001826482361737853</v>
       </c>
       <c r="J8">
-        <v>0.005487926408367056</v>
+        <v>0.001826482361737852</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N8">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q8">
-        <v>0.2159772314315556</v>
+        <v>0.1504236184822222</v>
       </c>
       <c r="R8">
-        <v>1.943795082884</v>
+        <v>1.35381256634</v>
       </c>
       <c r="S8">
-        <v>0.002097489306092147</v>
+        <v>0.0007324458392994463</v>
       </c>
       <c r="T8">
-        <v>0.002097489306092147</v>
+        <v>0.0007324458392994463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6350503333333334</v>
+        <v>0.2718733333333334</v>
       </c>
       <c r="H9">
-        <v>1.905151</v>
+        <v>0.81562</v>
       </c>
       <c r="I9">
-        <v>0.005487926408367055</v>
+        <v>0.001826482361737853</v>
       </c>
       <c r="J9">
-        <v>0.005487926408367056</v>
+        <v>0.001826482361737852</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N9">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q9">
-        <v>0.349111300146</v>
+        <v>0.2246840976177778</v>
       </c>
       <c r="R9">
-        <v>3.142001701314</v>
+        <v>2.02215687856</v>
       </c>
       <c r="S9">
-        <v>0.003390437102274909</v>
+        <v>0.001094036522438406</v>
       </c>
       <c r="T9">
-        <v>0.00339043710227491</v>
+        <v>0.001094036522438406</v>
       </c>
     </row>
   </sheetData>
